--- a/docentes.xlsx
+++ b/docentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DayClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD2CAA9-33AF-4C95-80FA-6CCE3BFF2FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F12C51-9694-4508-B493-FB5CFF99D88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>DNI</t>
   </si>
@@ -391,235 +391,22 @@
   </si>
   <si>
     <t>Lillith</t>
-  </si>
-  <si>
-    <t>Lamb</t>
-  </si>
-  <si>
-    <t>Hyacinth</t>
-  </si>
-  <si>
-    <t>Leach</t>
-  </si>
-  <si>
-    <t>Jakeem</t>
-  </si>
-  <si>
-    <t>Leonard</t>
-  </si>
-  <si>
-    <t>Fay</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>Shellie</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Jameson</t>
-  </si>
-  <si>
-    <t>Massey</t>
-  </si>
-  <si>
-    <t>Octavia</t>
-  </si>
-  <si>
-    <t>Mcclain</t>
-  </si>
-  <si>
-    <t>Iris</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Mills</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>Hillary</t>
-  </si>
-  <si>
-    <t>Morrison</t>
-  </si>
-  <si>
-    <t>Jessamine</t>
-  </si>
-  <si>
-    <t>Murphy</t>
-  </si>
-  <si>
-    <t>Blaine</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Briar</t>
-  </si>
-  <si>
-    <t>Peters</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>Petersen</t>
-  </si>
-  <si>
-    <t>Armando</t>
-  </si>
-  <si>
-    <t>Pitts</t>
-  </si>
-  <si>
-    <t>Athena</t>
-  </si>
-  <si>
-    <t>Prince</t>
-  </si>
-  <si>
-    <t>Chadwick</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Callum</t>
-  </si>
-  <si>
-    <t>Randolph</t>
-  </si>
-  <si>
-    <t>Sylvester</t>
-  </si>
-  <si>
-    <t>Rodriquez</t>
-  </si>
-  <si>
-    <t>Rosario</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Sandoval</t>
-  </si>
-  <si>
-    <t>Lucian</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Aubrey</t>
-  </si>
-  <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
-    <t>Kato</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Mikayla</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Stanton</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Avram</t>
-  </si>
-  <si>
-    <t>Swanson</t>
-  </si>
-  <si>
-    <t>Upton</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Kamal</t>
-  </si>
-  <si>
-    <t>Thornton</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Wall</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Watts</t>
-  </si>
-  <si>
-    <t>Madeline</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-  <si>
-    <t>Witt</t>
-  </si>
-  <si>
-    <t>Miriam</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <t>Woods</t>
-  </si>
-  <si>
-    <t>Sloane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -660,9 +447,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection sqref="A1:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +758,7 @@
         <v>14248800</v>
       </c>
       <c r="B2" s="1">
-        <v>84264</v>
+        <v>90000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -984,7 +772,7 @@
         <v>23234845</v>
       </c>
       <c r="B3" s="1">
-        <v>95681</v>
+        <v>90001</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -998,7 +786,7 @@
         <v>11700237</v>
       </c>
       <c r="B4" s="1">
-        <v>80893</v>
+        <v>90002</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1012,7 +800,7 @@
         <v>16529441</v>
       </c>
       <c r="B5" s="1">
-        <v>82182</v>
+        <v>90003</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1026,7 +814,7 @@
         <v>21669268</v>
       </c>
       <c r="B6" s="1">
-        <v>85193</v>
+        <v>90004</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1040,7 +828,7 @@
         <v>20684890</v>
       </c>
       <c r="B7" s="1">
-        <v>96039</v>
+        <v>90005</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1054,7 +842,7 @@
         <v>14467596</v>
       </c>
       <c r="B8" s="1">
-        <v>92609</v>
+        <v>90006</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1068,7 +856,7 @@
         <v>11537358</v>
       </c>
       <c r="B9" s="1">
-        <v>77998</v>
+        <v>90007</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1082,7 +870,7 @@
         <v>20609060</v>
       </c>
       <c r="B10" s="1">
-        <v>82433</v>
+        <v>90008</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -1096,7 +884,7 @@
         <v>19617326</v>
       </c>
       <c r="B11" s="1">
-        <v>104732</v>
+        <v>90009</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1110,7 +898,7 @@
         <v>12618030</v>
       </c>
       <c r="B12" s="1">
-        <v>94910</v>
+        <v>90010</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -1124,7 +912,7 @@
         <v>24157590</v>
       </c>
       <c r="B13" s="1">
-        <v>106585</v>
+        <v>90011</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -1138,7 +926,7 @@
         <v>15151583</v>
       </c>
       <c r="B14" s="1">
-        <v>79502</v>
+        <v>90012</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1152,7 +940,7 @@
         <v>24306617</v>
       </c>
       <c r="B15" s="1">
-        <v>70341</v>
+        <v>90013</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
@@ -1166,7 +954,7 @@
         <v>23758230</v>
       </c>
       <c r="B16" s="1">
-        <v>78044</v>
+        <v>90014</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1180,7 +968,7 @@
         <v>15630879</v>
       </c>
       <c r="B17" s="1">
-        <v>100868</v>
+        <v>90015</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
@@ -1194,7 +982,7 @@
         <v>15583560</v>
       </c>
       <c r="B18" s="1">
-        <v>84226</v>
+        <v>90016</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
@@ -1208,7 +996,7 @@
         <v>14187665</v>
       </c>
       <c r="B19" s="1">
-        <v>86467</v>
+        <v>90017</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
@@ -1222,7 +1010,7 @@
         <v>19763883</v>
       </c>
       <c r="B20" s="1">
-        <v>81032</v>
+        <v>90018</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>40</v>
@@ -1236,7 +1024,7 @@
         <v>17032877</v>
       </c>
       <c r="B21" s="1">
-        <v>87050</v>
+        <v>90019</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>42</v>
@@ -1250,7 +1038,7 @@
         <v>24904907</v>
       </c>
       <c r="B22" s="1">
-        <v>88743</v>
+        <v>90020</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -1264,7 +1052,7 @@
         <v>19247224</v>
       </c>
       <c r="B23" s="1">
-        <v>105219</v>
+        <v>90021</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>46</v>
@@ -1278,7 +1066,7 @@
         <v>13206018</v>
       </c>
       <c r="B24" s="1">
-        <v>83631</v>
+        <v>90022</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
@@ -1292,7 +1080,7 @@
         <v>11080178</v>
       </c>
       <c r="B25" s="1">
-        <v>72993</v>
+        <v>90023</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>50</v>
@@ -1306,7 +1094,7 @@
         <v>10725176</v>
       </c>
       <c r="B26" s="1">
-        <v>84407</v>
+        <v>90024</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>52</v>
@@ -1320,7 +1108,7 @@
         <v>16572676</v>
       </c>
       <c r="B27" s="1">
-        <v>73534</v>
+        <v>90025</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>54</v>
@@ -1334,7 +1122,7 @@
         <v>12921202</v>
       </c>
       <c r="B28" s="1">
-        <v>97399</v>
+        <v>90026</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>56</v>
@@ -1348,7 +1136,7 @@
         <v>20277607</v>
       </c>
       <c r="B29" s="1">
-        <v>90610</v>
+        <v>90027</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>58</v>
@@ -1362,7 +1150,7 @@
         <v>24842771</v>
       </c>
       <c r="B30" s="1">
-        <v>94487</v>
+        <v>90028</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>60</v>
@@ -1376,7 +1164,7 @@
         <v>24602983</v>
       </c>
       <c r="B31" s="1">
-        <v>102928</v>
+        <v>90029</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
@@ -1390,7 +1178,7 @@
         <v>13667844</v>
       </c>
       <c r="B32" s="1">
-        <v>97608</v>
+        <v>90030</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>63</v>
@@ -1404,7 +1192,7 @@
         <v>14628685</v>
       </c>
       <c r="B33" s="1">
-        <v>87608</v>
+        <v>90031</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>33</v>
@@ -1418,7 +1206,7 @@
         <v>20318629</v>
       </c>
       <c r="B34" s="1">
-        <v>75147</v>
+        <v>90032</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>66</v>
@@ -1432,7 +1220,7 @@
         <v>20752043</v>
       </c>
       <c r="B35" s="1">
-        <v>93734</v>
+        <v>90033</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>68</v>
@@ -1446,7 +1234,7 @@
         <v>20574466</v>
       </c>
       <c r="B36" s="1">
-        <v>83114</v>
+        <v>90034</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>70</v>
@@ -1460,7 +1248,7 @@
         <v>19085599</v>
       </c>
       <c r="B37" s="1">
-        <v>86358</v>
+        <v>90035</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>72</v>
@@ -1474,7 +1262,7 @@
         <v>23803239</v>
       </c>
       <c r="B38" s="1">
-        <v>92207</v>
+        <v>90036</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>74</v>
@@ -1488,7 +1276,7 @@
         <v>19947972</v>
       </c>
       <c r="B39" s="1">
-        <v>82433</v>
+        <v>90037</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>76</v>
@@ -1502,7 +1290,7 @@
         <v>23523841</v>
       </c>
       <c r="B40" s="1">
-        <v>84574</v>
+        <v>90038</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>78</v>
@@ -1516,7 +1304,7 @@
         <v>23432540</v>
       </c>
       <c r="B41" s="1">
-        <v>87946</v>
+        <v>90039</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>80</v>
@@ -1530,7 +1318,7 @@
         <v>21262344</v>
       </c>
       <c r="B42" s="1">
-        <v>101773</v>
+        <v>90040</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>82</v>
@@ -1544,7 +1332,7 @@
         <v>21185275</v>
       </c>
       <c r="B43" s="1">
-        <v>81059</v>
+        <v>90041</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>84</v>
@@ -1558,7 +1346,7 @@
         <v>10462925</v>
       </c>
       <c r="B44" s="1">
-        <v>99163</v>
+        <v>90042</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>86</v>
@@ -1572,7 +1360,7 @@
         <v>17350654</v>
       </c>
       <c r="B45" s="1">
-        <v>80184</v>
+        <v>90043</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
@@ -1586,7 +1374,7 @@
         <v>20557761</v>
       </c>
       <c r="B46" s="1">
-        <v>98503</v>
+        <v>90044</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>90</v>
@@ -1600,7 +1388,7 @@
         <v>11546781</v>
       </c>
       <c r="B47" s="1">
-        <v>82156</v>
+        <v>90045</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>90</v>
@@ -1614,7 +1402,7 @@
         <v>18531701</v>
       </c>
       <c r="B48" s="1">
-        <v>86837</v>
+        <v>90046</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>93</v>
@@ -1628,7 +1416,7 @@
         <v>15395201</v>
       </c>
       <c r="B49" s="1">
-        <v>92755</v>
+        <v>90047</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>95</v>
@@ -1642,7 +1430,7 @@
         <v>16763857</v>
       </c>
       <c r="B50" s="1">
-        <v>100379</v>
+        <v>90048</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>96</v>
@@ -1656,7 +1444,7 @@
         <v>10892106</v>
       </c>
       <c r="B51" s="1">
-        <v>91178</v>
+        <v>90049</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>98</v>
@@ -1670,7 +1458,7 @@
         <v>22865049</v>
       </c>
       <c r="B52" s="1">
-        <v>97337</v>
+        <v>90050</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>100</v>
@@ -1684,7 +1472,7 @@
         <v>20484134</v>
       </c>
       <c r="B53" s="1">
-        <v>70352</v>
+        <v>90051</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>102</v>
@@ -1698,7 +1486,7 @@
         <v>15838695</v>
       </c>
       <c r="B54" s="1">
-        <v>76529</v>
+        <v>90052</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>104</v>
@@ -1712,7 +1500,7 @@
         <v>12406334</v>
       </c>
       <c r="B55" s="1">
-        <v>88587</v>
+        <v>90053</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>106</v>
@@ -1726,7 +1514,7 @@
         <v>16737751</v>
       </c>
       <c r="B56" s="1">
-        <v>81521</v>
+        <v>90054</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>108</v>
@@ -1740,7 +1528,7 @@
         <v>12809807</v>
       </c>
       <c r="B57" s="1">
-        <v>96937</v>
+        <v>90055</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>110</v>
@@ -1754,7 +1542,7 @@
         <v>11865383</v>
       </c>
       <c r="B58" s="1">
-        <v>82987</v>
+        <v>90056</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>112</v>
@@ -1768,7 +1556,7 @@
         <v>18306692</v>
       </c>
       <c r="B59" s="1">
-        <v>77869</v>
+        <v>90057</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>114</v>
@@ -1782,7 +1570,7 @@
         <v>12295784</v>
       </c>
       <c r="B60" s="1">
-        <v>76567</v>
+        <v>90058</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>116</v>
@@ -1796,7 +1584,7 @@
         <v>11858591</v>
       </c>
       <c r="B61" s="1">
-        <v>108143</v>
+        <v>90059</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>118</v>
@@ -1810,7 +1598,7 @@
         <v>19115260</v>
       </c>
       <c r="B62" s="1">
-        <v>89485</v>
+        <v>90060</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>120</v>
@@ -1820,552 +1608,241 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>17484309</v>
-      </c>
-      <c r="B63" s="1">
-        <v>85378</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>19281879</v>
-      </c>
-      <c r="B64" s="1">
-        <v>90629</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>15649820</v>
-      </c>
-      <c r="B65" s="1">
-        <v>82026</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>11589131</v>
-      </c>
-      <c r="B66" s="1">
-        <v>93424</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>21326958</v>
-      </c>
-      <c r="B67" s="1">
-        <v>71967</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>22794106</v>
-      </c>
-      <c r="B68" s="1">
-        <v>73828</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>17735405</v>
-      </c>
-      <c r="B69" s="1">
-        <v>88888</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>24409439</v>
-      </c>
-      <c r="B70" s="1">
-        <v>106843</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>21107061</v>
-      </c>
-      <c r="B71" s="1">
-        <v>84707</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>11558841</v>
-      </c>
-      <c r="B72" s="1">
-        <v>99517</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>17968235</v>
-      </c>
-      <c r="B73" s="1">
-        <v>98576</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>10179124</v>
-      </c>
-      <c r="B74" s="1">
-        <v>84071</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>21892077</v>
-      </c>
-      <c r="B75" s="1">
-        <v>76894</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>22886952</v>
-      </c>
-      <c r="B76" s="1">
-        <v>90950</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>20337624</v>
-      </c>
-      <c r="B77" s="1">
-        <v>80670</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>16363569</v>
-      </c>
-      <c r="B78" s="1">
-        <v>70569</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>18423172</v>
-      </c>
-      <c r="B79" s="1">
-        <v>70355</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>21163024</v>
-      </c>
-      <c r="B80" s="1">
-        <v>74285</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>11776337</v>
-      </c>
-      <c r="B81" s="1">
-        <v>77536</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>11838713</v>
-      </c>
-      <c r="B82" s="1">
-        <v>87810</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>16642953</v>
-      </c>
-      <c r="B83" s="1">
-        <v>76400</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>12005019</v>
-      </c>
-      <c r="B84" s="1">
-        <v>100812</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>18641817</v>
-      </c>
-      <c r="B85" s="1">
-        <v>88971</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>17232334</v>
-      </c>
-      <c r="B86" s="1">
-        <v>109974</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>19158108</v>
-      </c>
-      <c r="B87" s="1">
-        <v>92165</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>15112259</v>
-      </c>
-      <c r="B88" s="1">
-        <v>77934</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>17522018</v>
-      </c>
-      <c r="B89" s="1">
-        <v>70960</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>11904020</v>
-      </c>
-      <c r="B90" s="1">
-        <v>95684</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>15557018</v>
-      </c>
-      <c r="B91" s="1">
-        <v>104703</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>20437218</v>
-      </c>
-      <c r="B92" s="1">
-        <v>89249</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>22437879</v>
-      </c>
-      <c r="B93" s="1">
-        <v>76193</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>12057645</v>
-      </c>
-      <c r="B94" s="1">
-        <v>90994</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>13499031</v>
-      </c>
-      <c r="B95" s="1">
-        <v>77423</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>24106906</v>
-      </c>
-      <c r="B96" s="1">
-        <v>86156</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>22267366</v>
-      </c>
-      <c r="B97" s="1">
-        <v>70071</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>20054369</v>
-      </c>
-      <c r="B98" s="1">
-        <v>99811</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>18272726</v>
-      </c>
-      <c r="B99" s="1">
-        <v>82522</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>18473147</v>
-      </c>
-      <c r="B100" s="1">
-        <v>100188</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>11602535</v>
-      </c>
-      <c r="B101" s="1">
-        <v>76896</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>